--- a/informes/registros_2026-01-16_a_2026-01-16.xlsx
+++ b/informes/registros_2026-01-16_a_2026-01-16.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,20 +524,20 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-16T14:03</t>
+          <t>2026-01-16T16:12</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-01-16T14:55</t>
+          <t>2026-01-16T19:42</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -556,30 +556,30 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Buscar métodos de arranque seguro modo kiosko</t>
+          <t>Instalar en Oficina El Paso</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-16T11:45:00.000Z</t>
+          <t>2026-01-16T14:03</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-01-16T12:15:00.000Z</t>
+          <t>2026-01-16T14:55</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>#8: Cosas varias</t>
+          <t>#1: Web Kiosko</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -594,35 +594,35 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>JJ MUelas pide acceso a La Palma web y servidor</t>
+          <t>Buscar métodos de arranque seguro modo kiosko</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-16T10:11:00.000Z</t>
+          <t>2026-01-16T11:45:00.000Z</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-01-16T10:44:00.000Z</t>
+          <t>2026-01-16T12:15:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>#2: AENA 2026</t>
+          <t>#8: Cosas varias</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Estancado</t>
+          <t>En proceso</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -632,35 +632,35 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Ver 0057 puerto 8091</t>
+          <t>JJ MUelas pide acceso a La Palma web y servidor</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-16T08:51:00.000Z</t>
+          <t>2026-01-16T10:11:00.000Z</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-01-16T10:11:00.000Z</t>
+          <t>2026-01-16T10:44:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>#1: Web Kiosko</t>
+          <t>#2: AENA 2026</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Estancado</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -670,96 +670,134 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Creo usuario inmokiosk con edge</t>
+          <t>Ver 0057 puerto 8091</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2026-01-16T08:51:00.000Z</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2026-01-16T10:11:00.000Z</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>80</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>#1: Web Kiosko</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pedro</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Creo usuario inmokiosk con edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>23</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>2026-01-16T08:27:00.000Z</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>2026-01-16T08:41:00.000Z</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>14</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>#5: Vigo Servidor</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>En proceso</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Pedro</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Comprobación estado
 287,312,817 registros en hist_incoming. Faltan tres días para optimize</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="11">
+      <c r="A11" t="n">
         <v>22</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>2026-01-16T07:36:00.000Z</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>2026-01-16T08:45:00.000Z</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>69</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>#1: Web Kiosko</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>En proceso</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Pedro</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Tarea eliminar cactus en comentarios. Se está actualizando Oficina el Paso, luego sigo.
 Vuelvo a entrar y hay alguien paseando por la web. Lo haré por la noche. Se ha actualizado windows</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="C12" s="4" t="inlineStr">
+    <row r="13">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>TOTAL:</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
-        <v>278</v>
+      <c r="D13" s="5" t="n">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
